--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomford/Projects/rust-tomlparse/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomford/Code/rust-tomlparse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6484799B-52F5-BA4F-8778-A6AD5C3B279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCBFCAC-91AA-A844-B7BC-9DDD1BB92659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="780" windowWidth="15140" windowHeight="18880" xr2:uid="{7DE5358D-EB7B-2445-85B8-580B8690A605}"/>
+    <workbookView xWindow="15100" yWindow="760" windowWidth="15140" windowHeight="18880" activeTab="1" xr2:uid="{7DE5358D-EB7B-2445-85B8-580B8690A605}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81175D9F-030E-4648-B932-899D2D945A10}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEFA656-A223-384F-8EA2-44D940595C71}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,14 +581,6 @@
       </c>
       <c r="B10">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
